--- a/data/trans_camb/P43B_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P43B_R-Estudios-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.468170017864412</v>
+        <v>-1.321526857983003</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.139656297502515</v>
+        <v>-2.25187418982577</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.221440732137051</v>
+        <v>3.337787299128352</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.720260492147451</v>
+        <v>2.715754765225974</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01533075884180707</v>
+        <v>-0.01402472776441449</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02214049527132764</v>
+        <v>-0.02348065495390503</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.03460195747644695</v>
+        <v>0.03520933350888957</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02917161581738233</v>
+        <v>0.02892920687286082</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>8.902175190632589</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.108920216742539</v>
+        <v>3.10892021674255</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.069931435607687</v>
+        <v>4.599875646533118</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9699661611377915</v>
+        <v>-0.794124722576832</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.67744112305205</v>
+        <v>12.88517357726653</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.031360882115852</v>
+        <v>7.107841702949173</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>0.1096954532954506</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.03830911042885569</v>
+        <v>0.03830911042885583</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06096280279751345</v>
+        <v>0.05467853064353066</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01126580253790879</v>
+        <v>-0.009100520964580153</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1625997033769253</v>
+        <v>0.1650155947361507</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.09020786007605226</v>
+        <v>0.09016084859468064</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.032183341203706</v>
+        <v>-6.450287777057118</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.13665775742357</v>
+        <v>-10.57887932156606</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.80577743967919</v>
+        <v>15.40237617037939</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.69071064428571</v>
+        <v>9.752463052120914</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1078690194251621</v>
+        <v>-0.1035553527288262</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1609225230000317</v>
+        <v>-0.1646051308989566</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2990670978021517</v>
+        <v>0.3140983858727764</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2030792307413531</v>
+        <v>0.2043277137791103</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.192057427119657</v>
+        <v>-0.6572636642358858</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.806670822551333</v>
+        <v>-6.586658933565863</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.530899801899586</v>
+        <v>4.71496599544101</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.890877875527414</v>
+        <v>-1.524269221191474</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.002266779405124264</v>
+        <v>-0.007567949826802141</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07783053242755263</v>
+        <v>-0.07546899339851668</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.05335945104178447</v>
+        <v>0.056083949192935</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02274921516418234</v>
+        <v>-0.01818144910857803</v>
       </c>
     </row>
     <row r="28">
